--- a/first_planet_build.xlsx
+++ b/first_planet_build.xlsx
@@ -115,16 +115,16 @@
     <t>EspionageTechnology</t>
   </si>
   <si>
+    <t>astrophysics</t>
+  </si>
+  <si>
+    <t>Astrophysics</t>
+  </si>
+  <si>
     <t>light_laser</t>
   </si>
   <si>
     <t>LightLaser</t>
-  </si>
-  <si>
-    <t>astrophysics</t>
-  </si>
-  <si>
-    <t>Astrophysics</t>
   </si>
   <si>
     <t>weapons_technology</t>
@@ -1150,146 +1150,146 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B75" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B76" s="4">
         <v>2.0</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B76" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>9</v>
+      <c r="C76" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B77" s="4">
+      <c r="B78" s="4">
         <v>5.0</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C78" s="3" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B78" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B79" s="4">
-        <v>17.0</v>
+        <v>14.0</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B80" s="4">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B81" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="4">
         <v>17.0</v>
       </c>
-      <c r="C81" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="4" t="s">
+      <c r="C82" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B82" s="4">
+      <c r="B83" s="4">
         <v>20.0</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C83" s="3" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B83" s="4">
-        <v>18.0</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B84" s="4">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B85" s="4">
-        <v>13.0</v>
+        <v>15.0</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B86" s="4">
+        <v>13.0</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="4">
         <v>18.0</v>
       </c>
-      <c r="C86" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B87" s="4">
-        <v>3.0</v>
-      </c>
       <c r="C87" s="3" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1371,13 +1371,13 @@
     </row>
     <row r="95">
       <c r="A95" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B95" s="4">
         <v>3.0</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="96">
@@ -1426,24 +1426,24 @@
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B100" s="4">
         <v>5.0</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B101" s="7">
         <v>10.0</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102">
@@ -1745,13 +1745,13 @@
     </row>
     <row r="129">
       <c r="A129" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B129" s="4">
         <v>7.0</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="130">
@@ -2075,13 +2075,13 @@
     </row>
     <row r="159">
       <c r="A159" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B159" s="14">
         <v>9.0</v>
       </c>
       <c r="C159" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="160">

--- a/first_planet_build.xlsx
+++ b/first_planet_build.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="56">
   <si>
     <t>solar_plant</t>
   </si>
@@ -169,16 +169,16 @@
     <t>MissileSilo</t>
   </si>
   <si>
+    <t>fusion_reactor</t>
+  </si>
+  <si>
+    <t>FusionReactor</t>
+  </si>
+  <si>
     <t>nanite_factory</t>
   </si>
   <si>
     <t>NaniteFactory</t>
-  </si>
-  <si>
-    <t>fusion_reactor</t>
-  </si>
-  <si>
-    <t>FusionReactor</t>
   </si>
 </sst>
 </file>
@@ -299,12 +299,12 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1844,321 +1844,321 @@
     </row>
     <row r="138">
       <c r="A138" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B138" s="17">
+        <v>3.0</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B138" s="14">
+      <c r="B139" s="14">
         <v>9.0</v>
       </c>
-      <c r="C138" s="13" t="s">
+      <c r="C139" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="16" t="s">
+    <row r="140">
+      <c r="A140" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B139" s="14">
+      <c r="B140" s="14">
         <v>8.0</v>
       </c>
-      <c r="C139" s="13" t="s">
+      <c r="C140" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="4" t="s">
+    <row r="141">
+      <c r="A141" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B141" s="4">
         <v>10.0</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C141" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1" t="s">
+    <row r="142">
+      <c r="A142" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B141" s="2">
+      <c r="B142" s="2">
         <v>10.0</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C142" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B142" s="12">
+    <row r="143">
+      <c r="A143" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B143" s="12">
         <v>25.0</v>
       </c>
-      <c r="C142" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143" s="4">
+      <c r="C143" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" s="4">
         <v>25.0</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="4" t="s">
+      <c r="C144" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B145" s="4">
         <v>100.0</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C145" s="3" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B145" s="12">
-        <v>23.0</v>
-      </c>
-      <c r="C145" s="13" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B146" s="12">
+        <v>23.0</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B146" s="12">
+      <c r="B147" s="12">
         <v>21.0</v>
       </c>
-      <c r="C146" s="15" t="s">
+      <c r="C147" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="4" t="s">
+    <row r="148">
+      <c r="A148" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B147" s="4">
+      <c r="B148" s="4">
         <v>10.0</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C148" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="9" t="s">
+    <row r="149">
+      <c r="A149" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B149" s="9">
+        <v>1.0</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B150" s="12">
+        <v>26.0</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B152" s="12">
+        <v>23.0</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B148" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="C148" s="10" t="s">
+      <c r="B153" s="17">
+        <v>10.0</v>
+      </c>
+      <c r="C153" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B149" s="12">
-        <v>26.0</v>
-      </c>
-      <c r="C149" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B150" s="4">
-        <v>26.0</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B151" s="12">
+    <row r="154">
+      <c r="A154" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B154" s="12">
         <v>23.0</v>
       </c>
-      <c r="C151" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B152" s="18">
-        <v>10.0</v>
-      </c>
-      <c r="C152" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B153" s="12">
-        <v>23.0</v>
-      </c>
-      <c r="C153" s="15" t="s">
+      <c r="C154" s="15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="16" t="s">
+    <row r="155">
+      <c r="A155" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B154" s="14">
+      <c r="B155" s="14">
         <v>150.0</v>
       </c>
-      <c r="C154" s="13" t="s">
+      <c r="C155" s="13" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B155" s="14">
-        <v>27.0</v>
-      </c>
-      <c r="C155" s="13" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B156" s="14">
         <v>27.0</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B157" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B158" s="17">
+        <v>7.0</v>
+      </c>
+      <c r="C158" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B159" s="14">
         <v>24.0</v>
       </c>
-      <c r="C157" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="11" t="s">
+      <c r="C159" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B158" s="14">
+      <c r="B160" s="14">
         <v>24.0</v>
       </c>
-      <c r="C158" s="20" t="s">
+      <c r="C160" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="16" t="s">
+    <row r="161">
+      <c r="A161" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B159" s="14">
+      <c r="B161" s="14">
         <v>9.0</v>
       </c>
-      <c r="C159" s="13" t="s">
+      <c r="C161" s="13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="16" t="s">
+    <row r="162">
+      <c r="A162" s="19" t="s">
         <v>10</v>
-      </c>
-      <c r="B160" s="14">
-        <v>11.0</v>
-      </c>
-      <c r="C160" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B161" s="21">
-        <v>10.0</v>
-      </c>
-      <c r="C161" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="16" t="s">
-        <v>8</v>
       </c>
       <c r="B162" s="14">
         <v>11.0</v>
       </c>
       <c r="C162" s="13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B163" s="21">
+        <v>10.0</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B164" s="14">
+        <v>11.0</v>
+      </c>
+      <c r="C164" s="13" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B163" s="14">
-        <v>28.0</v>
-      </c>
-      <c r="C163" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B164" s="14">
-        <v>29.0</v>
-      </c>
-      <c r="C164" s="13" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="11" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B165" s="14">
-        <v>26.0</v>
+        <v>28.0</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="11" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B166" s="14">
-        <v>25.0</v>
-      </c>
-      <c r="C166" s="20" t="s">
-        <v>7</v>
+        <v>29.0</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="167">
@@ -2166,7 +2166,7 @@
         <v>4</v>
       </c>
       <c r="B167" s="14">
-        <v>27.0</v>
+        <v>26.0</v>
       </c>
       <c r="C167" s="13" t="s">
         <v>5</v>
@@ -2174,24 +2174,24 @@
     </row>
     <row r="168">
       <c r="A168" s="11" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B168" s="14">
-        <v>30.0</v>
-      </c>
-      <c r="C168" s="13" t="s">
-        <v>3</v>
+        <v>25.0</v>
+      </c>
+      <c r="C168" s="20" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B169" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="C169" s="19" t="s">
-        <v>53</v>
+      <c r="A169" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="170">
@@ -2199,166 +2199,188 @@
         <v>2</v>
       </c>
       <c r="B170" s="14">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="C170" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B171" s="14">
-        <v>26.0</v>
-      </c>
-      <c r="C171" s="20" t="s">
-        <v>7</v>
+      <c r="A171" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B171" s="21">
+        <v>2.0</v>
+      </c>
+      <c r="C171" s="18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B172" s="14">
-        <v>28.0</v>
+        <v>31.0</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E172" s="16"/>
+        <v>3</v>
+      </c>
+      <c r="E172" s="19"/>
       <c r="F172" s="14"/>
       <c r="G172" s="13"/>
     </row>
     <row r="173">
-      <c r="A173" s="16" t="s">
+      <c r="A173" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B173" s="14">
+        <v>26.0</v>
+      </c>
+      <c r="C173" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B174" s="14">
+        <v>28.0</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B173" s="14">
+      <c r="B175" s="14">
         <v>12.0</v>
       </c>
-      <c r="C173" s="13" t="s">
+      <c r="C175" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B174" s="18">
+    <row r="176">
+      <c r="A176" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B176" s="17">
         <v>3.0</v>
       </c>
-      <c r="C174" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B175" s="14">
-        <v>30.0</v>
-      </c>
-      <c r="C175" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B176" s="14">
-        <v>27.0</v>
-      </c>
-      <c r="C176" s="20" t="s">
-        <v>7</v>
+      <c r="C176" s="18" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B177" s="14">
+        <v>30.0</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178" s="14">
+        <v>27.0</v>
+      </c>
+      <c r="C178" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B179" s="14">
         <v>32.0</v>
       </c>
-      <c r="C177" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="17" t="s">
+      <c r="C179" s="13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B180" s="21">
+        <v>16.0</v>
+      </c>
+      <c r="C180" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B178" s="21">
-        <v>16.0</v>
-      </c>
-      <c r="C178" s="19" t="s">
+      <c r="B181" s="17">
+        <v>4.0</v>
+      </c>
+      <c r="C181" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B179" s="18">
-        <v>4.0</v>
-      </c>
-      <c r="C179" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B180" s="14">
+    <row r="182">
+      <c r="A182" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B182" s="14">
         <v>29.0</v>
       </c>
-      <c r="C180" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B181" s="14">
-        <v>28.0</v>
-      </c>
-      <c r="C181" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B182" s="18">
-        <v>5.0</v>
-      </c>
-      <c r="C182" s="19" t="s">
-        <v>53</v>
+      <c r="C182" s="13" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B183" s="12">
-        <v>29.0</v>
+      <c r="B183" s="14">
+        <v>28.0</v>
       </c>
       <c r="C183" s="20" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B184" s="12">
+      <c r="A184" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B184" s="17">
+        <v>5.0</v>
+      </c>
+      <c r="C184" s="18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B185" s="12">
+        <v>29.0</v>
+      </c>
+      <c r="C185" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B186" s="12">
         <v>33.0</v>
       </c>
-      <c r="C184" s="13" t="s">
+      <c r="C186" s="13" t="s">
         <v>3</v>
       </c>
     </row>

--- a/first_planet_build.xlsx
+++ b/first_planet_build.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="52">
   <si>
     <t>solar_plant</t>
   </si>
@@ -85,10 +85,10 @@
     <t>DeuteriumTank</t>
   </si>
   <si>
-    <t>solar_satellite</t>
-  </si>
-  <si>
-    <t>SolarSatellite</t>
+    <t>fusion_reactor</t>
+  </si>
+  <si>
+    <t>FusionReactor</t>
   </si>
   <si>
     <t>combustion_drive</t>
@@ -121,12 +121,6 @@
     <t>Astrophysics</t>
   </si>
   <si>
-    <t>light_laser</t>
-  </si>
-  <si>
-    <t>LightLaser</t>
-  </si>
-  <si>
     <t>weapons_technology</t>
   </si>
   <si>
@@ -167,12 +161,6 @@
   </si>
   <si>
     <t>MissileSilo</t>
-  </si>
-  <si>
-    <t>fusion_reactor</t>
-  </si>
-  <si>
-    <t>FusionReactor</t>
   </si>
   <si>
     <t>nanite_factory</t>
@@ -185,7 +173,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="6">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -204,20 +192,13 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color rgb="FF032F62"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF032F62"/>
-    </font>
-    <font/>
-    <font>
       <sz val="9.0"/>
       <color rgb="FF032F62"/>
       <name val="SFMono-Regular"/>
     </font>
+    <font/>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -230,12 +211,6 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF6F8FA"/>
-        <bgColor rgb="FFF6F8FA"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -246,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -262,22 +237,19 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -294,15 +266,6 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -886,13 +849,13 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="C51" s="3" t="s">
+      <c r="B51" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="C51" s="7" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1161,597 +1124,597 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3" t="s">
-        <v>36</v>
+      <c r="A76" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B76" s="4">
-        <v>2.0</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>37</v>
+        <v>7.0</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B77" s="4">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="4" t="s">
-        <v>10</v>
+      <c r="A78" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B78" s="4">
-        <v>5.0</v>
+        <v>14.0</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B79" s="4">
-        <v>14.0</v>
+        <v>17.0</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B80" s="4">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B81" s="4">
-        <v>12.0</v>
+        <v>17.0</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B82" s="4">
-        <v>17.0</v>
-      </c>
-      <c r="C82" s="3" t="s">
-        <v>3</v>
+      <c r="A82" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B82" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="4" t="s">
-        <v>24</v>
+      <c r="A83" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B83" s="4">
-        <v>20.0</v>
+        <v>18.0</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B84" s="4">
-        <v>18.0</v>
+        <v>15.0</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B85" s="4">
-        <v>15.0</v>
+        <v>13.0</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B86" s="4">
-        <v>13.0</v>
+        <v>18.0</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B87" s="4">
-        <v>18.0</v>
+        <v>7.0</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="B88" s="4">
-        <v>7.0</v>
+        <v>19.0</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B89" s="4">
-        <v>19.0</v>
+        <v>17.0</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
-        <v>4</v>
+      <c r="A90" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="B90" s="4">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B91" s="4">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B92" s="4">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="4" t="s">
-        <v>20</v>
+      <c r="A93" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B93" s="4">
         <v>6.0</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
-        <v>14</v>
+      <c r="A94" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B94" s="4">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="4" t="s">
-        <v>34</v>
+      <c r="A95" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B95" s="4">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B96" s="4">
-        <v>14.0</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>7</v>
+      <c r="A96" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B96" s="6">
+        <v>8.0</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="4" t="s">
-        <v>24</v>
+      <c r="A97" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="B97" s="4">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B98" s="4">
-        <v>18.0</v>
+        <v>20.0</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
-        <v>2</v>
+      <c r="A99" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B99" s="4">
-        <v>20.0</v>
+        <v>5.0</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B100" s="4">
         <v>5.0</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B101" s="7">
-        <v>10.0</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>37</v>
+      <c r="A101" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B101" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="4" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B102" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>31</v>
+        <v>4.0</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B103" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>25</v>
+      <c r="A103" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B103" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="4" t="s">
-        <v>38</v>
+      <c r="A104" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B104" s="4">
-        <v>4.0</v>
-      </c>
-      <c r="C104" s="9" t="s">
-        <v>39</v>
+        <v>21.0</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B105" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>41</v>
+      <c r="A105" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B106" s="4">
-        <v>21.0</v>
+        <v>19.0</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107" s="4">
-        <v>21.0</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>1</v>
+      <c r="A107" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B107" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
-        <v>4</v>
+      <c r="A108" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B108" s="4">
-        <v>19.0</v>
+        <v>5.0</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B109" s="9">
-        <v>5.0</v>
-      </c>
-      <c r="C109" s="9" t="s">
-        <v>43</v>
+      <c r="A109" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B109" s="4">
+        <v>8.0</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="4" t="s">
-        <v>30</v>
+      <c r="A110" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B110" s="4">
-        <v>5.0</v>
+        <v>9.0</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B111" s="4">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
-        <v>12</v>
+      <c r="A112" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B112" s="4">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B113" s="4">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B114" s="4">
-        <v>7.0</v>
+        <v>10.0</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="4" t="s">
-        <v>22</v>
+      <c r="A115" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="B115" s="4">
-        <v>7.0</v>
+        <v>15.0</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="4" t="s">
-        <v>30</v>
+      <c r="A116" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="B116" s="4">
-        <v>10.0</v>
+        <v>22.0</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B117" s="4">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B118" s="4">
         <v>22.0</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B119" s="4">
-        <v>20.0</v>
+        <v>16</v>
+      </c>
+      <c r="B119" s="2">
+        <v>8.0</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B120" s="4">
-        <v>22.0</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>1</v>
+      <c r="A120" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" s="11">
+        <v>8.0</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B121" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>17</v>
+      <c r="A121" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B121" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B122" s="12">
-        <v>8.0</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>15</v>
+      <c r="A122" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B122" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B123" s="9">
+      <c r="A123" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B123" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B124" s="13">
+        <v>23.0</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B125" s="8">
         <v>6.0</v>
       </c>
-      <c r="C123" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B124" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B125" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="C125" s="10" t="s">
+      <c r="C125" s="9" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B126" s="14">
-        <v>23.0</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>3</v>
+      <c r="A126" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B126" s="13">
+        <v>21.0</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B127" s="9">
-        <v>6.0</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>49</v>
+      <c r="A127" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B127" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B128" s="14">
+      <c r="A128" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128" s="4">
         <v>21.0</v>
       </c>
-      <c r="C128" s="13" t="s">
-        <v>5</v>
+      <c r="C128" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B129" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>35</v>
+      <c r="A129" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B129" s="11">
+        <v>24.0</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="130">
@@ -1759,628 +1722,617 @@
         <v>0</v>
       </c>
       <c r="B130" s="4">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B131" s="12">
-        <v>24.0</v>
-      </c>
-      <c r="C131" s="13" t="s">
-        <v>3</v>
+      <c r="A131" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B131" s="11">
+        <v>22.0</v>
+      </c>
+      <c r="C131" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B132" s="4">
-        <v>24.0</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>1</v>
+      <c r="A132" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B132" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="C132" s="14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B133" s="12">
-        <v>22.0</v>
-      </c>
-      <c r="C133" s="13" t="s">
-        <v>5</v>
+      <c r="A133" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B133" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B134" s="12">
-        <v>19.0</v>
-      </c>
-      <c r="C134" s="15" t="s">
-        <v>7</v>
+      <c r="A134" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B134" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B135" s="4">
-        <v>6.0</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>19</v>
+      <c r="A135" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B135" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C135" s="9" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B136" s="12">
+      <c r="A136" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B136" s="6">
         <v>10.0</v>
       </c>
-      <c r="C136" s="13" t="s">
-        <v>15</v>
+      <c r="C136" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B137" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>51</v>
+      <c r="A137" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B137" s="13">
+        <v>9.0</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B138" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="C138" s="18" t="s">
-        <v>53</v>
+      <c r="A138" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B138" s="13">
+        <v>8.0</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B139" s="14">
-        <v>9.0</v>
-      </c>
-      <c r="C139" s="13" t="s">
-        <v>11</v>
+      <c r="A139" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B139" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B140" s="14">
-        <v>8.0</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>23</v>
+      <c r="A140" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B140" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B141" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>9</v>
+      <c r="A141" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B141" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B142" s="2">
+        <v>0</v>
+      </c>
+      <c r="B142" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B143" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="C143" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B144" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B145" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="C145" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B146" s="4">
         <v>10.0</v>
       </c>
-      <c r="C142" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B143" s="12">
+      <c r="C146" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B147" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C147" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B148" s="11">
+        <v>26.0</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" s="4">
+        <v>26.0</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B150" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B151" s="6">
+        <v>12.0</v>
+      </c>
+      <c r="C151" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B152" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="C152" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B153" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154" s="13">
+        <v>27.0</v>
+      </c>
+      <c r="C154" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B155" s="13">
+        <v>27.0</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B156" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="C156" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B157" s="13">
+        <v>24.0</v>
+      </c>
+      <c r="C157" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B158" s="13">
+        <v>24.0</v>
+      </c>
+      <c r="C158" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B159" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="C159" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B160" s="17">
+        <v>10.0</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B161" s="13">
+        <v>11.0</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" s="13">
+        <v>28.0</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B163" s="13">
+        <v>29.0</v>
+      </c>
+      <c r="C163" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B164" s="13">
+        <v>26.0</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B165" s="13">
         <v>25.0</v>
       </c>
-      <c r="C143" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B144" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="4" t="s">
+      <c r="C165" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B166" s="13">
+        <v>27.0</v>
+      </c>
+      <c r="C166" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B167" s="13">
+        <v>30.0</v>
+      </c>
+      <c r="C167" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B168" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B169" s="11">
+        <v>11.0</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B170" s="13">
+        <v>31.0</v>
+      </c>
+      <c r="C170" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B171" s="13">
+        <v>26.0</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B172" s="13">
+        <v>28.0</v>
+      </c>
+      <c r="C172" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E172" s="15"/>
+      <c r="F172" s="13"/>
+      <c r="G172" s="12"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B173" s="13">
+        <v>12.0</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B174" s="6">
+        <v>3.0</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B175" s="4">
+        <v>12.0</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" s="13">
+        <v>30.0</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B177" s="13">
+        <v>27.0</v>
+      </c>
+      <c r="C177" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B178" s="13">
+        <v>32.0</v>
+      </c>
+      <c r="C178" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B145" s="4">
-        <v>100.0</v>
-      </c>
-      <c r="C145" s="3" t="s">
+      <c r="B179" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="C179" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B146" s="12">
-        <v>23.0</v>
-      </c>
-      <c r="C146" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="11" t="s">
+    <row r="180">
+      <c r="A180" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B180" s="6">
+        <v>4.0</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B181" s="13">
+        <v>29.0</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B147" s="12">
-        <v>21.0</v>
-      </c>
-      <c r="C147" s="15" t="s">
+      <c r="B182" s="13">
+        <v>28.0</v>
+      </c>
+      <c r="C182" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B148" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B149" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B150" s="12">
-        <v>26.0</v>
-      </c>
-      <c r="C150" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B151" s="4">
-        <v>26.0</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B152" s="12">
-        <v>23.0</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B153" s="17">
-        <v>10.0</v>
-      </c>
-      <c r="C153" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="11" t="s">
+    <row r="183">
+      <c r="A183" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B183" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B154" s="12">
-        <v>23.0</v>
-      </c>
-      <c r="C154" s="15" t="s">
+      <c r="B184" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="C184" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B155" s="14">
-        <v>150.0</v>
-      </c>
-      <c r="C155" s="13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B156" s="14">
-        <v>27.0</v>
-      </c>
-      <c r="C156" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B157" s="14">
-        <v>27.0</v>
-      </c>
-      <c r="C157" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B158" s="17">
-        <v>7.0</v>
-      </c>
-      <c r="C158" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B159" s="14">
-        <v>24.0</v>
-      </c>
-      <c r="C159" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B160" s="14">
-        <v>24.0</v>
-      </c>
-      <c r="C160" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B161" s="14">
-        <v>9.0</v>
-      </c>
-      <c r="C161" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B162" s="14">
-        <v>11.0</v>
-      </c>
-      <c r="C162" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B163" s="21">
-        <v>10.0</v>
-      </c>
-      <c r="C163" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B164" s="14">
-        <v>11.0</v>
-      </c>
-      <c r="C164" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B165" s="14">
-        <v>28.0</v>
-      </c>
-      <c r="C165" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B166" s="14">
-        <v>29.0</v>
-      </c>
-      <c r="C166" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B167" s="14">
-        <v>26.0</v>
-      </c>
-      <c r="C167" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B168" s="14">
-        <v>25.0</v>
-      </c>
-      <c r="C168" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B169" s="14">
-        <v>27.0</v>
-      </c>
-      <c r="C169" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B170" s="14">
-        <v>30.0</v>
-      </c>
-      <c r="C170" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B171" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="C171" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B172" s="14">
-        <v>31.0</v>
-      </c>
-      <c r="C172" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="E172" s="19"/>
-      <c r="F172" s="14"/>
-      <c r="G172" s="13"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B173" s="14">
-        <v>26.0</v>
-      </c>
-      <c r="C173" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B174" s="14">
-        <v>28.0</v>
-      </c>
-      <c r="C174" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B175" s="14">
-        <v>12.0</v>
-      </c>
-      <c r="C175" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B176" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="C176" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B177" s="14">
-        <v>30.0</v>
-      </c>
-      <c r="C177" s="13" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B178" s="14">
-        <v>27.0</v>
-      </c>
-      <c r="C178" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B179" s="14">
-        <v>32.0</v>
-      </c>
-      <c r="C179" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B180" s="21">
-        <v>16.0</v>
-      </c>
-      <c r="C180" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B181" s="17">
-        <v>4.0</v>
-      </c>
-      <c r="C181" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B182" s="14">
-        <v>29.0</v>
-      </c>
-      <c r="C182" s="13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B183" s="14">
-        <v>28.0</v>
-      </c>
-      <c r="C183" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B184" s="17">
-        <v>5.0</v>
-      </c>
-      <c r="C184" s="18" t="s">
-        <v>55</v>
-      </c>
-    </row>
     <row r="185">
-      <c r="A185" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B185" s="12">
-        <v>29.0</v>
-      </c>
-      <c r="C185" s="20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B186" s="12">
+      <c r="A185" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B185" s="11">
         <v>33.0</v>
       </c>
-      <c r="C186" s="13" t="s">
+      <c r="C185" s="12" t="s">
         <v>3</v>
       </c>
     </row>

--- a/first_planet_build.xlsx
+++ b/first_planet_build.xlsx
@@ -121,6 +121,12 @@
     <t>Astrophysics</t>
   </si>
   <si>
+    <t>missile_silo</t>
+  </si>
+  <si>
+    <t>MissileSilo</t>
+  </si>
+  <si>
     <t>weapons_technology</t>
   </si>
   <si>
@@ -155,12 +161,6 @@
   </si>
   <si>
     <t>PlasmaTechnology</t>
-  </si>
-  <si>
-    <t>missile_silo</t>
-  </si>
-  <si>
-    <t>MissileSilo</t>
   </si>
   <si>
     <t>nanite_factory</t>
@@ -1377,267 +1377,267 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B99" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="C99" s="3" t="s">
-        <v>35</v>
+      <c r="A99" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B99" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B100" s="4">
         <v>5.0</v>
       </c>
       <c r="C100" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B101" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="5" t="s">
+    <row r="102">
+      <c r="A102" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B101" s="6">
+      <c r="B102" s="6">
         <v>9.0</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="C102" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B102" s="4">
+    <row r="103">
+      <c r="A103" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B103" s="4">
         <v>4.0</v>
       </c>
-      <c r="C102" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B103" s="8">
+      <c r="C103" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B104" s="8">
         <v>6.0</v>
       </c>
-      <c r="C103" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B104" s="4">
-        <v>21.0</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>3</v>
+      <c r="C104" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B105" s="4">
         <v>21.0</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B106" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B107" s="4">
         <v>19.0</v>
       </c>
-      <c r="C106" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B107" s="8">
+      <c r="C107" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B108" s="8">
         <v>5.0</v>
       </c>
-      <c r="C107" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B108" s="4">
-        <v>5.0</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>31</v>
+      <c r="C108" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109" s="4">
+        <v>5.0</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B110" s="4">
         <v>8.0</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C110" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1" t="s">
+    <row r="111">
+      <c r="A111" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B110" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="B111" s="4">
         <v>9.0</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B112" s="4">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B113" s="4">
         <v>7.0</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B114" s="4">
+        <v>7.0</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B114" s="4">
+      <c r="B115" s="4">
         <v>10.0</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C115" s="3" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B115" s="4">
-        <v>15.0</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B116" s="4">
-        <v>22.0</v>
+        <v>15.0</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B117" s="4">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B118" s="4">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119" s="4">
+        <v>22.0</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B119" s="2">
+      <c r="B120" s="2">
         <v>8.0</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C120" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="10" t="s">
+    <row r="121">
+      <c r="A121" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B120" s="11">
+      <c r="B121" s="11">
         <v>8.0</v>
       </c>
-      <c r="C120" s="12" t="s">
+      <c r="C121" s="12" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B121" s="8">
-        <v>6.0</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B122" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C122" s="9" t="s">
-        <v>43</v>
+        <v>6.0</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="123">
@@ -1652,135 +1652,135 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B124" s="13">
+      <c r="A124" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B124" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" s="13">
         <v>23.0</v>
       </c>
-      <c r="C124" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B125" s="8">
+      <c r="C125" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B126" s="8">
         <v>6.0</v>
       </c>
-      <c r="C125" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B126" s="13">
+      <c r="C126" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="13">
         <v>21.0</v>
       </c>
-      <c r="C126" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="4" t="s">
+      <c r="C127" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B127" s="4">
+      <c r="B128" s="4">
         <v>7.0</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C128" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B128" s="4">
+    <row r="129">
+      <c r="A129" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129" s="4">
         <v>21.0</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B129" s="11">
+      <c r="C129" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B130" s="11">
         <v>24.0</v>
       </c>
-      <c r="C129" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B130" s="4">
+      <c r="C130" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131" s="4">
         <v>24.0</v>
       </c>
-      <c r="C130" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B131" s="11">
-        <v>22.0</v>
-      </c>
-      <c r="C131" s="12" t="s">
-        <v>5</v>
+      <c r="C131" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B132" s="11">
+        <v>22.0</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B132" s="11">
+      <c r="B133" s="11">
         <v>19.0</v>
       </c>
-      <c r="C132" s="14" t="s">
+      <c r="C133" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="4" t="s">
+    <row r="134">
+      <c r="A134" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B133" s="4">
+      <c r="B134" s="4">
         <v>6.0</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C134" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="10" t="s">
+    <row r="135">
+      <c r="A135" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B134" s="11">
+      <c r="B135" s="11">
         <v>10.0</v>
       </c>
-      <c r="C134" s="12" t="s">
+      <c r="C135" s="12" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B135" s="8">
-        <v>2.0</v>
-      </c>
-      <c r="C135" s="9" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="136">

--- a/first_planet_build.xlsx
+++ b/first_planet_build.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="52">
   <si>
     <t>solar_plant</t>
   </si>
@@ -1641,520 +1641,520 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B123" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C123" s="9" t="s">
-        <v>45</v>
+      <c r="A123" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B123" s="4">
+        <v>16.0</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B124" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C124" s="9" t="s">
-        <v>47</v>
+      <c r="A124" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="4">
+        <v>17.0</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B125" s="13">
-        <v>23.0</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>3</v>
+      <c r="A125" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B125" s="4">
+        <v>18.0</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B126" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B127" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B128" s="13">
+        <v>23.0</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B126" s="8">
+      <c r="B129" s="8">
         <v>6.0</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C129" s="9" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B127" s="13">
-        <v>21.0</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B128" s="4">
-        <v>7.0</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B129" s="4">
-        <v>21.0</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B130" s="11">
-        <v>24.0</v>
+        <v>4</v>
+      </c>
+      <c r="B130" s="13">
+        <v>21.0</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="s">
-        <v>0</v>
+      <c r="A131" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B131" s="4">
-        <v>24.0</v>
+        <v>7.0</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B132" s="11">
-        <v>22.0</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>5</v>
+      <c r="A132" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132" s="4">
+        <v>21.0</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="10" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B133" s="11">
-        <v>19.0</v>
-      </c>
-      <c r="C133" s="14" t="s">
-        <v>7</v>
+        <v>24.0</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="4" t="s">
-        <v>18</v>
+      <c r="A134" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B134" s="4">
-        <v>6.0</v>
+        <v>24.0</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B135" s="11">
+        <v>22.0</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B136" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="C136" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B137" s="4">
+        <v>6.0</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B135" s="11">
+      <c r="B138" s="11">
         <v>10.0</v>
       </c>
-      <c r="C135" s="12" t="s">
+      <c r="C138" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="5" t="s">
+    <row r="139">
+      <c r="A139" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B136" s="6">
+      <c r="B139" s="6">
         <v>10.0</v>
       </c>
-      <c r="C136" s="7" t="s">
+      <c r="C139" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="15" t="s">
+    <row r="140">
+      <c r="A140" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B137" s="13">
+      <c r="B140" s="13">
         <v>9.0</v>
       </c>
-      <c r="C137" s="12" t="s">
+      <c r="C140" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="15" t="s">
+    <row r="141">
+      <c r="A141" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B138" s="13">
+      <c r="B141" s="13">
         <v>8.0</v>
       </c>
-      <c r="C138" s="12" t="s">
+      <c r="C141" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="4" t="s">
+    <row r="142">
+      <c r="A142" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B142" s="4">
         <v>10.0</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C142" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1" t="s">
+    <row r="143">
+      <c r="A143" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B140" s="2">
+      <c r="B143" s="2">
         <v>10.0</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C143" s="3" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B141" s="11">
-        <v>25.0</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B142" s="4">
-        <v>25.0</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B143" s="6">
-        <v>11.0</v>
-      </c>
-      <c r="C143" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B144" s="11">
+        <v>25.0</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" s="4">
+        <v>25.0</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B146" s="6">
+        <v>11.0</v>
+      </c>
+      <c r="C146" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B147" s="11">
         <v>23.0</v>
       </c>
-      <c r="C144" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B145" s="11">
-        <v>21.0</v>
-      </c>
-      <c r="C145" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B146" s="4">
-        <v>10.0</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B147" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="C147" s="9" t="s">
-        <v>51</v>
+      <c r="C147" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="10" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B148" s="11">
+        <v>21.0</v>
+      </c>
+      <c r="C148" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B149" s="4">
+        <v>10.0</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B150" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="C150" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B151" s="11">
         <v>26.0</v>
       </c>
-      <c r="C148" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B149" s="4">
+      <c r="C151" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152" s="4">
         <v>26.0</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B150" s="11">
+      <c r="C152" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B153" s="11">
         <v>23.0</v>
       </c>
-      <c r="C150" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="5" t="s">
+      <c r="C153" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B151" s="6">
+      <c r="B154" s="6">
         <v>12.0</v>
       </c>
-      <c r="C151" s="7" t="s">
+      <c r="C154" s="7" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B152" s="11">
-        <v>23.0</v>
-      </c>
-      <c r="C152" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B153" s="4">
-        <v>9.0</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B154" s="13">
-        <v>27.0</v>
-      </c>
-      <c r="C154" s="12" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B155" s="13">
-        <v>27.0</v>
-      </c>
-      <c r="C155" s="12" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B155" s="11">
+        <v>23.0</v>
+      </c>
+      <c r="C155" s="14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B156" s="6">
-        <v>13.0</v>
-      </c>
-      <c r="C156" s="7" t="s">
-        <v>25</v>
+      <c r="A156" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B156" s="4">
+        <v>9.0</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="10" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B157" s="13">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="C157" s="12" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158" s="13">
+        <v>27.0</v>
+      </c>
+      <c r="C158" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B159" s="6">
+        <v>13.0</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B160" s="13">
+        <v>24.0</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B158" s="13">
+      <c r="B161" s="13">
         <v>24.0</v>
       </c>
-      <c r="C158" s="16" t="s">
+      <c r="C161" s="16" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="15" t="s">
+    <row r="162">
+      <c r="A162" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B159" s="13">
+      <c r="B162" s="13">
         <v>11.0</v>
       </c>
-      <c r="C159" s="12" t="s">
+      <c r="C162" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="15" t="s">
+    <row r="163">
+      <c r="A163" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B160" s="17">
+      <c r="B163" s="17">
         <v>10.0</v>
       </c>
-      <c r="C160" s="12" t="s">
+      <c r="C163" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="15" t="s">
+    <row r="164">
+      <c r="A164" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B161" s="13">
+      <c r="B164" s="13">
         <v>11.0</v>
       </c>
-      <c r="C161" s="12" t="s">
+      <c r="C164" s="12" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B162" s="13">
-        <v>28.0</v>
-      </c>
-      <c r="C162" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B163" s="13">
-        <v>29.0</v>
-      </c>
-      <c r="C163" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B164" s="13">
-        <v>26.0</v>
-      </c>
-      <c r="C164" s="12" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="10" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B165" s="13">
-        <v>25.0</v>
-      </c>
-      <c r="C165" s="16" t="s">
-        <v>7</v>
+        <v>28.0</v>
+      </c>
+      <c r="C165" s="12" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B166" s="13">
-        <v>27.0</v>
+        <v>29.0</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="10" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B167" s="13">
-        <v>30.0</v>
+        <v>26.0</v>
       </c>
       <c r="C167" s="12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B168" s="17">
-        <v>2.0</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>51</v>
+      <c r="A168" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B168" s="13">
+        <v>25.0</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B169" s="11">
-        <v>11.0</v>
+      <c r="A169" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B169" s="13">
+        <v>27.0</v>
       </c>
       <c r="C169" s="12" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170">
@@ -2162,145 +2162,145 @@
         <v>2</v>
       </c>
       <c r="B170" s="13">
-        <v>31.0</v>
+        <v>30.0</v>
       </c>
       <c r="C170" s="12" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B171" s="13">
-        <v>26.0</v>
-      </c>
-      <c r="C171" s="16" t="s">
-        <v>7</v>
+      <c r="A171" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B171" s="17">
+        <v>2.0</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B172" s="13">
-        <v>28.0</v>
+      <c r="A172" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B172" s="11">
+        <v>11.0</v>
       </c>
       <c r="C172" s="12" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="E172" s="15"/>
       <c r="F172" s="13"/>
       <c r="G172" s="12"/>
     </row>
     <row r="173">
-      <c r="A173" s="15" t="s">
+      <c r="A173" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B173" s="13">
+        <v>31.0</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B174" s="13">
+        <v>26.0</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B175" s="13">
+        <v>28.0</v>
+      </c>
+      <c r="C175" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B173" s="13">
+      <c r="B176" s="13">
         <v>12.0</v>
       </c>
-      <c r="C173" s="12" t="s">
+      <c r="C176" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="5" t="s">
+    <row r="177">
+      <c r="A177" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B174" s="6">
+      <c r="B177" s="6">
         <v>3.0</v>
       </c>
-      <c r="C174" s="7" t="s">
+      <c r="C177" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="4" t="s">
+    <row r="178">
+      <c r="A178" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B175" s="4">
+      <c r="B178" s="4">
         <v>12.0</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C178" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B176" s="13">
+    <row r="179">
+      <c r="A179" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" s="13">
         <v>30.0</v>
       </c>
-      <c r="C176" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="10" t="s">
+      <c r="C179" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B177" s="13">
+      <c r="B180" s="13">
         <v>27.0</v>
       </c>
-      <c r="C177" s="16" t="s">
+      <c r="C180" s="16" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B178" s="13">
-        <v>32.0</v>
-      </c>
-      <c r="C178" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B179" s="6">
-        <v>14.0</v>
-      </c>
-      <c r="C179" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B180" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="C180" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B181" s="13">
-        <v>29.0</v>
+        <v>32.0</v>
       </c>
       <c r="C181" s="12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B182" s="13">
-        <v>28.0</v>
-      </c>
-      <c r="C182" s="16" t="s">
-        <v>7</v>
+      <c r="A182" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B182" s="6">
+        <v>14.0</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="183">
@@ -2308,7 +2308,7 @@
         <v>50</v>
       </c>
       <c r="B183" s="6">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="C183" s="7" t="s">
         <v>51</v>
@@ -2316,23 +2316,56 @@
     </row>
     <row r="184">
       <c r="A184" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B184" s="11">
+        <v>4</v>
+      </c>
+      <c r="B184" s="13">
         <v>29.0</v>
       </c>
-      <c r="C184" s="16" t="s">
-        <v>7</v>
+      <c r="C184" s="12" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B185" s="11">
+        <v>6</v>
+      </c>
+      <c r="B185" s="13">
+        <v>28.0</v>
+      </c>
+      <c r="C185" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B186" s="6">
+        <v>5.0</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B187" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B188" s="11">
         <v>33.0</v>
       </c>
-      <c r="C185" s="12" t="s">
+      <c r="C188" s="12" t="s">
         <v>3</v>
       </c>
     </row>

--- a/first_planet_build.xlsx
+++ b/first_planet_build.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="52">
   <si>
     <t>solar_plant</t>
   </si>
@@ -2369,6 +2369,61 @@
         <v>3</v>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B189" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="C189" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190" s="11">
+        <v>30.0</v>
+      </c>
+      <c r="C190" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B191" s="11">
+        <v>31.0</v>
+      </c>
+      <c r="C191" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B192" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="C192" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B193" s="11">
+        <v>34.0</v>
+      </c>
+      <c r="C193" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
